--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020520.xlsx_with_dialog_acts.xlsx
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4607,12 +4607,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5955,12 +5955,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6081,12 +6081,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6585,12 +6585,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7131,12 +7131,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7635,12 +7635,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8181,12 +8181,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8265,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8349,12 +8349,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8391,12 +8391,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8769,12 +8769,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9021,12 +9021,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9063,12 +9063,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9105,12 +9105,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10617,12 +10617,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10659,12 +10659,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10995,12 +10995,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11247,12 +11247,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12255,12 +12255,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12339,12 +12339,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12423,12 +12423,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12507,12 +12507,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12801,12 +12801,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13685,12 +13685,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14189,12 +14189,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14693,12 +14693,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15239,12 +15239,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15281,12 +15281,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15323,12 +15323,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15659,12 +15659,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15701,12 +15701,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15743,12 +15743,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15869,12 +15869,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15953,12 +15953,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
